--- a/biology/Botanique/Pteridophyte_Phylogeny_Group/Pteridophyte_Phylogeny_Group.xlsx
+++ b/biology/Botanique/Pteridophyte_Phylogeny_Group/Pteridophyte_Phylogeny_Group.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Pteridophyte Phylogeny Group, ou PPG, est un groupe international informel de botanistes systématiciens qui collaborent pour établir un consensus sur la classification des ptéridophytes (lycophytes et fougères) qui reflète les connaissances sur les relations entre les plantes découvertes par des études phylogénétiques. En 2016, le groupe a publié une classification des ptéridophytes existants, appelée « PPG I ». L'article comptait 94 auteurs (26 principaux et 68 supplémentaires)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Pteridophyte Phylogeny Group, ou PPG, est un groupe international informel de botanistes systématiciens qui collaborent pour établir un consensus sur la classification des ptéridophytes (lycophytes et fougères) qui reflète les connaissances sur les relations entre les plantes découvertes par des études phylogénétiques. En 2016, le groupe a publié une classification des ptéridophytes existants, appelée « PPG I ». L'article comptait 94 auteurs (26 principaux et 68 supplémentaires).
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification a été basée sur une phylogénie consensuelle, présentée ci-dessous au niveau de l'ordre[1].
-Le très vaste ordre des Polypodiales a été divisé en deux sous-ordres, ainsi que des familles non placées dans un sous-ordre[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification a été basée sur une phylogénie consensuelle, présentée ci-dessous au niveau de l'ordre.
+Le très vaste ordre des Polypodiales a été divisé en deux sous-ordres, ainsi que des familles non placées dans un sous-ordre:
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification au niveau de la sous-famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Au niveau de la sous-famille, la classification PPG I est la suivante[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Au niveau de la sous-famille, la classification PPG I est la suivante :
 Class Lycopodiopsida Bartl. (3 orders, 3 families, 18 genera)
 Order Lycopodiales DC. ex Bercht. &amp; J.Presl (1 family, 16 genera)
 Family Lycopodiaceae P.Beauv. (16 genera)
